--- a/01_Input/00_CO Validation/Sri Lanka - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Sri Lanka - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="311" documentId="11_59392953A5B08644DD0FF8ADE13F31B695A83B27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB389C82-BAF1-437B-910C-BCBA62312163}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="11_59392953A5B08644DD0FF8ADE13F31B695A83B27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216CF3CF-FBFF-4B84-8B33-7C88F3D9DE29}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="117">
   <si>
     <t>Project ID</t>
   </si>
@@ -72,7 +75,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Comments</t>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -257,6 +260,9 @@
   </si>
   <si>
     <t>Number of green/sustainable jobs created</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>Around 1.2 million farmers will benefit from five provinces from the energy plans that has RE and EE</t>
@@ -621,17 +627,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,8 +657,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,15 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -973,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A990A5B-E022-46D9-84CB-38958F243B24}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1095,16 +1101,16 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="25">
+      <c r="A3" s="23">
         <v>119366</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <v>1007201</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -1123,11 +1129,11 @@
       <c r="J3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="30" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="30" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="12"/>
@@ -1139,10 +1145,10 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="14" t="s">
         <v>34</v>
       </c>
@@ -1157,9 +1163,9 @@
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="28"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="28"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="12"/>
       <c r="O4" t="s">
         <v>26</v>
@@ -1175,10 +1181,10 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="14" t="s">
         <v>34</v>
       </c>
@@ -1197,9 +1203,9 @@
       <c r="J5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="29"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="29"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="12"/>
       <c r="O5" t="s">
         <v>26</v>
@@ -1215,16 +1221,16 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>134410</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>261353</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -1242,11 +1248,11 @@
       <c r="J6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="30" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="12"/>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="30" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="12"/>
@@ -1258,10 +1264,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
@@ -1278,9 +1284,9 @@
       <c r="J7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="28"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="12"/>
       <c r="O7" t="s">
         <v>26</v>
@@ -1290,10 +1296,10 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="14" t="s">
         <v>34</v>
       </c>
@@ -1310,9 +1316,9 @@
       <c r="J8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="29"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="12"/>
       <c r="O8" t="s">
         <v>26</v>
@@ -1328,16 +1334,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="30.75">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>142290</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>324000</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -1356,11 +1362,11 @@
       <c r="J9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="30" t="s">
         <v>54</v>
       </c>
       <c r="L9" s="12"/>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="30" t="s">
         <v>25</v>
       </c>
       <c r="N9" s="12"/>
@@ -1378,10 +1384,10 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="14" t="s">
         <v>34</v>
       </c>
@@ -1398,9 +1404,9 @@
       <c r="J10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="28"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="12"/>
       <c r="O10" t="s">
         <v>26</v>
@@ -1416,10 +1422,10 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="14" t="s">
         <v>34</v>
       </c>
@@ -1436,9 +1442,9 @@
       <c r="J11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="29"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="22"/>
       <c r="O11" t="s">
         <v>26</v>
@@ -1454,16 +1460,16 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <v>145829</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="23">
         <v>1151772</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -1482,11 +1488,11 @@
       <c r="J12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="12"/>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="27" t="s">
         <v>25</v>
       </c>
       <c r="N12" s="12"/>
@@ -1498,10 +1504,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
@@ -1518,9 +1524,9 @@
       <c r="J13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="24"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="12"/>
       <c r="O13" t="s">
         <v>26</v>
@@ -1536,14 +1542,14 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>100344</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="17" t="s">
         <v>69</v>
       </c>
@@ -1560,7 +1566,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="27" t="s">
         <v>25</v>
       </c>
       <c r="N14" s="12"/>
@@ -1572,10 +1578,10 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="17" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1600,7 @@
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="12"/>
       <c r="O15" t="s">
         <v>26</v>
@@ -1604,10 +1610,10 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="17" t="s">
         <v>73</v>
       </c>
@@ -1635,16 +1641,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="K6:K8"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -1652,18 +1660,16 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="M9:M11"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="M14:M15"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S16" xr:uid="{2656783B-E017-4B69-B2BF-55ABED0028FD}">
@@ -1768,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>14</v>
@@ -1831,16 +1837,16 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="25">
+      <c r="A3" s="23">
         <v>119366</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <v>1007201</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -1859,11 +1865,11 @@
       <c r="J3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="30" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="30" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="12"/>
@@ -1875,10 +1881,10 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="14" t="s">
         <v>34</v>
       </c>
@@ -1893,9 +1899,9 @@
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="28"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="28"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="12"/>
       <c r="O4" t="s">
         <v>26</v>
@@ -1911,10 +1917,10 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="14" t="s">
         <v>34</v>
       </c>
@@ -1931,11 +1937,11 @@
         <v>1200000</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="29"/>
+        <v>76</v>
+      </c>
+      <c r="K5" s="32"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="29"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="12"/>
       <c r="O5" t="s">
         <v>26</v>
@@ -1951,16 +1957,16 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>134410</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>261353</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -1978,11 +1984,11 @@
       <c r="J6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="30" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="12"/>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="30" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="12"/>
@@ -1994,10 +2000,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
@@ -2014,9 +2020,9 @@
       <c r="J7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="28"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="12"/>
       <c r="O7" t="s">
         <v>26</v>
@@ -2026,10 +2032,10 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="14" t="s">
         <v>34</v>
       </c>
@@ -2046,9 +2052,9 @@
       <c r="J8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="29"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="12"/>
       <c r="O8" t="s">
         <v>26</v>
@@ -2064,16 +2070,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="30.75">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>142290</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>324000</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -2092,11 +2098,11 @@
       <c r="J9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="30" t="s">
         <v>54</v>
       </c>
       <c r="L9" s="12"/>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="30" t="s">
         <v>25</v>
       </c>
       <c r="N9" s="12"/>
@@ -2114,10 +2120,10 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="14" t="s">
         <v>34</v>
       </c>
@@ -2134,9 +2140,9 @@
       <c r="J10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="28"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="12"/>
       <c r="O10" t="s">
         <v>26</v>
@@ -2152,10 +2158,10 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="14" t="s">
         <v>34</v>
       </c>
@@ -2172,9 +2178,9 @@
       <c r="J11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="29"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="22"/>
       <c r="O11" t="s">
         <v>26</v>
@@ -2190,16 +2196,16 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <v>145829</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="23">
         <v>1151772</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -2218,11 +2224,11 @@
       <c r="J12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="12"/>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="27" t="s">
         <v>25</v>
       </c>
       <c r="N12" s="12"/>
@@ -2234,10 +2240,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
@@ -2254,9 +2260,9 @@
       <c r="J13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="24"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="12"/>
       <c r="O13" t="s">
         <v>26</v>
@@ -2272,14 +2278,14 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>100344</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="17" t="s">
         <v>69</v>
       </c>
@@ -2296,7 +2302,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="27" t="s">
         <v>25</v>
       </c>
       <c r="N14" s="12"/>
@@ -2308,10 +2314,10 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="17" t="s">
         <v>30</v>
       </c>
@@ -2330,7 +2336,7 @@
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="12"/>
       <c r="O15" t="s">
         <v>26</v>
@@ -2340,10 +2346,10 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="17" t="s">
         <v>73</v>
       </c>
@@ -2371,6 +2377,27 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -2379,27 +2406,6 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="M14:M15"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12" xr:uid="{8A6EECDF-213D-4435-9AB2-44F0897711E3}"/>
@@ -2538,7 +2544,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2603,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2623,7 +2629,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -2652,7 +2658,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2681,7 +2687,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2719,7 +2725,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2739,7 +2745,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2765,7 +2771,7 @@
         <v>324000</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>58</v>
@@ -2794,10 +2800,10 @@
         <v>1151772</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2870,7 +2876,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -2890,7 +2896,7 @@
         <v>68</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>74</v>
@@ -2947,160 +2953,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
-        <v>89</v>
+      <c r="A2" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="34"/>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="34"/>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>96</v>
+      <c r="A5" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="35"/>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="35"/>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="35"/>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="35"/>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="33" t="s">
-        <v>105</v>
+      <c r="A10" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="36"/>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="34" t="s">
-        <v>108</v>
+      <c r="A12" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="37"/>
       <c r="B13" t="s">
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="37"/>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3124,17 +3130,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3383,14 +3378,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C138E8-386B-4289-AC99-AD84197522D7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D75D5F-5916-4E44-9F19-6C353537A8C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD35035E-53EF-4346-8B10-4ECA462E02DA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD35035E-53EF-4346-8B10-4ECA462E02DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D75D5F-5916-4E44-9F19-6C353537A8C9}"/>
 </file>
--- a/01_Input/00_CO Validation/Sri Lanka - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Sri Lanka - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27504"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="423" documentId="11_59392953A5B08644DD0FF8ADE13F31B695A83B27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C610463C-350B-4452-A125-1714F78076EC}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="11_59392953A5B08644DD0FF8ADE13F31B695A83B27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B94C4284-A51B-486B-9BCA-CB86E1466A18}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="142">
   <si>
     <t>Project ID</t>
   </si>
@@ -117,13 +117,10 @@
     <t>UNDP</t>
   </si>
   <si>
-    <t>VF</t>
+    <t>Non-VF</t>
   </si>
   <si>
     <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Non-VF</t>
   </si>
   <si>
     <t>Renewable Energy</t>
@@ -751,13 +748,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -766,14 +793,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -790,30 +811,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A990A5B-E022-46D9-84CB-38958F243B24}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1265,14 +1262,14 @@
       <c r="T2" s="21"/>
       <c r="U2" s="33"/>
       <c r="W2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="10"/>
@@ -1281,23 +1278,23 @@
       <c r="AE2" s="14"/>
     </row>
     <row r="3" spans="1:31" ht="45.75">
-      <c r="A3" s="34">
+      <c r="A3" s="43">
         <v>119366</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D3" s="43">
+        <v>1007201</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="34">
-        <v>1007201</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="G3" s="12">
         <v>0</v>
@@ -1306,10 +1303,10 @@
         <v>273</v>
       </c>
       <c r="I3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="43" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>36</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="26" t="s">
@@ -1326,15 +1323,15 @@
       <c r="S3" s="33"/>
       <c r="T3" s="21"/>
       <c r="U3" s="33"/>
-      <c r="W3" s="34" t="s">
-        <v>29</v>
+      <c r="W3" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="21"/>
       <c r="AB3" s="10"/>
@@ -1343,15 +1340,15 @@
       <c r="AE3" s="12"/>
     </row>
     <row r="4" spans="1:31" ht="45.75">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="12">
         <v>0</v>
@@ -1360,7 +1357,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="34"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="10"/>
       <c r="L4" s="26" t="s">
         <v>27</v>
@@ -1376,34 +1373,34 @@
       <c r="S4" s="33"/>
       <c r="T4" s="21"/>
       <c r="U4" s="33"/>
-      <c r="W4" s="34"/>
+      <c r="W4" s="43"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA4" s="21"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="AE4" s="12"/>
     </row>
     <row r="5" spans="1:31" ht="45.75">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
@@ -1412,9 +1409,9 @@
         <v>5</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="J5" s="43"/>
       <c r="K5" s="10"/>
       <c r="L5" s="26" t="s">
         <v>27</v>
@@ -1424,62 +1421,62 @@
         <v>28</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S5" s="33"/>
       <c r="T5" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U5" s="33">
         <v>1200000</v>
       </c>
-      <c r="W5" s="34"/>
+      <c r="W5" s="43"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE5" s="12">
         <v>1200000</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="45.75">
-      <c r="A6" s="34">
+      <c r="A6" s="43">
         <v>134410</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="D6" s="43">
+        <v>261353</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="34">
-        <v>261353</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
@@ -1488,10 +1485,10 @@
         <v>120</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="43" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>50</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="26" t="s">
@@ -1508,15 +1505,15 @@
       <c r="S6" s="33"/>
       <c r="T6" s="21"/>
       <c r="U6" s="33"/>
-      <c r="W6" s="34" t="s">
-        <v>29</v>
+      <c r="W6" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="21"/>
       <c r="AB6" s="10"/>
@@ -1525,15 +1522,15 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="45.75">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
@@ -1542,9 +1539,9 @@
         <v>500</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="34"/>
+        <v>52</v>
+      </c>
+      <c r="J7" s="43"/>
       <c r="K7" s="10"/>
       <c r="L7" s="26" t="s">
         <v>27</v>
@@ -1560,13 +1557,13 @@
       <c r="S7" s="33"/>
       <c r="T7" s="21"/>
       <c r="U7" s="33"/>
-      <c r="W7" s="34"/>
+      <c r="W7" s="43"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA7" s="21"/>
       <c r="AB7" s="10"/>
@@ -1575,15 +1572,15 @@
       <c r="AE7" s="12"/>
     </row>
     <row r="8" spans="1:31" ht="45.75">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
@@ -1592,9 +1589,9 @@
         <v>30</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="34"/>
+        <v>53</v>
+      </c>
+      <c r="J8" s="43"/>
       <c r="K8" s="10"/>
       <c r="L8" s="26" t="s">
         <v>27</v>
@@ -1610,42 +1607,42 @@
       <c r="S8" s="33"/>
       <c r="T8" s="21"/>
       <c r="U8" s="33"/>
-      <c r="W8" s="34"/>
+      <c r="W8" s="43"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE8" s="12"/>
     </row>
     <row r="9" spans="1:31" ht="45.75">
-      <c r="A9" s="34">
+      <c r="A9" s="43">
         <v>142290</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="D9" s="43">
         <v>324000</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="12">
         <v>0</v>
@@ -1654,10 +1651,10 @@
         <v>3</v>
       </c>
       <c r="I9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="43" t="s">
         <v>58</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>59</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="26" t="s">
@@ -1668,52 +1665,52 @@
         <v>28</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U9" s="33"/>
-      <c r="W9" s="34" t="s">
-        <v>29</v>
+      <c r="W9" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE9" s="12"/>
     </row>
     <row r="10" spans="1:31" ht="45.75">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
@@ -1722,9 +1719,9 @@
         <v>400</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="J10" s="43"/>
       <c r="K10" s="10"/>
       <c r="L10" s="26" t="s">
         <v>27</v>
@@ -1740,34 +1737,34 @@
       <c r="S10" s="33"/>
       <c r="T10" s="21"/>
       <c r="U10" s="33"/>
-      <c r="W10" s="34"/>
+      <c r="W10" s="43"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA10" s="21"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE10" s="12"/>
     </row>
     <row r="11" spans="1:31" ht="45.75">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="34"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -1776,9 +1773,9 @@
         <v>3</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="34"/>
+        <v>66</v>
+      </c>
+      <c r="J11" s="43"/>
       <c r="K11" s="10"/>
       <c r="L11" s="26" t="s">
         <v>27</v>
@@ -1788,58 +1785,58 @@
         <v>28</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U11" s="33"/>
-      <c r="W11" s="34"/>
+      <c r="W11" s="43"/>
       <c r="X11" s="23"/>
       <c r="Y11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE11" s="12"/>
     </row>
     <row r="12" spans="1:31" ht="45.75">
-      <c r="A12" s="34">
+      <c r="A12" s="43">
         <v>145829</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="43">
+        <v>1151772</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="34">
-        <v>1151772</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="G12" s="12">
         <v>0</v>
@@ -1848,9 +1845,9 @@
         <v>11500</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="46" t="s">
         <v>26</v>
       </c>
       <c r="K12" s="10"/>
@@ -1868,15 +1865,15 @@
       <c r="S12" s="33"/>
       <c r="T12" s="21"/>
       <c r="U12" s="33"/>
-      <c r="W12" s="39" t="s">
-        <v>29</v>
+      <c r="W12" s="46" t="s">
+        <v>27</v>
       </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA12" s="21"/>
       <c r="AB12" s="10"/>
@@ -1885,15 +1882,15 @@
       <c r="AE12" s="12"/>
     </row>
     <row r="13" spans="1:31" ht="45.75">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="34"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="12">
         <v>0</v>
@@ -1902,9 +1899,9 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="39"/>
+        <v>73</v>
+      </c>
+      <c r="J13" s="46"/>
       <c r="K13" s="10"/>
       <c r="L13" s="26" t="s">
         <v>27</v>
@@ -1914,58 +1911,58 @@
         <v>28</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U13" s="33"/>
-      <c r="W13" s="39"/>
+      <c r="W13" s="46"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA13" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE13" s="12"/>
+    </row>
+    <row r="14" spans="1:31" ht="45.75">
+      <c r="A14" s="43">
+        <v>100344</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="AE13" s="12"/>
-    </row>
-    <row r="14" spans="1:31" ht="45.75">
-      <c r="A14" s="34">
-        <v>100344</v>
-      </c>
-      <c r="B14" s="35" t="s">
+      <c r="C14" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="D14" s="51">
+        <v>996991</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="37">
-        <v>996991</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="G14" s="15">
         <v>270</v>
@@ -1974,8 +1971,8 @@
         <v>50000</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="41" t="s">
-        <v>80</v>
+      <c r="J14" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="26" t="s">
@@ -1983,7 +1980,7 @@
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -1992,15 +1989,15 @@
       <c r="S14" s="33"/>
       <c r="T14" s="21"/>
       <c r="U14" s="33"/>
-      <c r="W14" s="39" t="s">
-        <v>29</v>
+      <c r="W14" s="46" t="s">
+        <v>27</v>
       </c>
       <c r="X14" s="10"/>
       <c r="Y14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="21"/>
       <c r="AB14" s="10"/>
@@ -2009,15 +2006,15 @@
       <c r="AE14" s="15"/>
     </row>
     <row r="15" spans="1:31" ht="45.75">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="15">
         <v>0</v>
@@ -2026,16 +2023,16 @@
         <v>80000</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="42"/>
+        <v>82</v>
+      </c>
+      <c r="J15" s="54"/>
       <c r="K15" s="10"/>
       <c r="L15" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -2044,13 +2041,13 @@
       <c r="S15" s="33"/>
       <c r="T15" s="21"/>
       <c r="U15" s="33"/>
-      <c r="W15" s="39"/>
+      <c r="W15" s="46"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10" t="s">
         <v>28</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="10"/>
@@ -2059,15 +2056,15 @@
       <c r="AE15" s="15"/>
     </row>
     <row r="16" spans="1:31" ht="45.75">
-      <c r="A16" s="41"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
@@ -2076,14 +2073,14 @@
         <v>60</v>
       </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="43"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="10"/>
       <c r="L16" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M16" s="21"/>
       <c r="N16" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
@@ -2098,7 +2095,7 @@
         <v>28</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA16" s="21"/>
       <c r="AB16" s="10"/>
@@ -2106,24 +2103,24 @@
       <c r="AD16" s="10"/>
       <c r="AE16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="45.75">
-      <c r="A17" s="55">
+    <row r="17" spans="1:12" ht="45.75">
+      <c r="A17" s="39">
         <v>144399</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="58">
+      <c r="D17" s="42">
         <v>43615</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>79</v>
       </c>
       <c r="G17">
         <v>270</v>
@@ -2131,28 +2128,31 @@
       <c r="H17">
         <v>302</v>
       </c>
-      <c r="J17" s="53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30.75">
+      <c r="J17" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30.75">
       <c r="A18" s="10">
         <v>1000353</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="47">
+      <c r="D18" s="34">
         <v>24533</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>78</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>79</v>
       </c>
       <c r="G18">
         <v>270</v>
@@ -2161,11 +2161,32 @@
         <v>288</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="W9:W11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="W6:W8"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
@@ -2178,24 +2199,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="J6:J8"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="W9:W11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="J14:J16"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD16" xr:uid="{2656783B-E017-4B69-B2BF-55ABED0028FD}">
@@ -2225,7 +2228,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T16" xr:uid="{49AA078C-7503-4232-B72A-DDCE16B958A0}">
       <formula1>"National, Regional, City, Community"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L16" xr:uid="{49308E06-A525-4002-A359-4264ED98CF3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L18" xr:uid="{49308E06-A525-4002-A359-4264ED98CF3B}">
       <formula1>"Non-VF, VF"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R16" xr:uid="{36179383-640F-4883-9622-D7681396F9AA}">
@@ -2314,7 +2317,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>8</v>
@@ -2326,10 +2329,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>13</v>
@@ -2381,34 +2384,34 @@
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" t="s">
         <v>28</v>
       </c>
       <c r="P2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="43">
+        <v>119366</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="34">
-        <v>119366</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="C3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="34">
+      <c r="D3" s="43">
         <v>1007201</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="12">
         <v>0</v>
@@ -2418,33 +2421,33 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>95</v>
+        <v>34</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>94</v>
       </c>
       <c r="L3" s="10"/>
-      <c r="M3" s="41" t="s">
-        <v>29</v>
+      <c r="M3" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" t="s">
         <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="12">
         <v>0</v>
@@ -2454,33 +2457,33 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="42"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="42"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="10"/>
       <c r="O4" t="s">
         <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
         <v>38</v>
       </c>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
@@ -2492,43 +2495,43 @@
         <v>1200000</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="43"/>
+        <v>95</v>
+      </c>
+      <c r="K5" s="55"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="43"/>
+      <c r="M5" s="55"/>
       <c r="N5" s="10"/>
       <c r="O5" t="s">
         <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="43">
+        <v>134410</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="S5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="34">
-        <v>134410</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="D6" s="43">
+        <v>261353</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="34">
-        <v>261353</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
@@ -2537,33 +2540,33 @@
         <v>120</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="41" t="s">
-        <v>50</v>
-      </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="41" t="s">
-        <v>29</v>
+      <c r="M6" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" t="s">
         <v>28</v>
       </c>
       <c r="P6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
@@ -2573,29 +2576,29 @@
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="42"/>
+        <v>52</v>
+      </c>
+      <c r="K7" s="54"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="42"/>
+      <c r="M7" s="54"/>
       <c r="N7" s="10"/>
       <c r="O7" t="s">
         <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
@@ -2605,43 +2608,43 @@
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="43"/>
+        <v>53</v>
+      </c>
+      <c r="K8" s="55"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="43"/>
+      <c r="M8" s="55"/>
       <c r="N8" s="10"/>
       <c r="O8" t="s">
         <v>28</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="30.75">
-      <c r="A9" s="34">
+      <c r="A9" s="43">
         <v>142290</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="D9" s="43">
         <v>324000</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="12">
         <v>0</v>
@@ -2651,39 +2654,39 @@
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="41" t="s">
-        <v>59</v>
-      </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="41" t="s">
-        <v>29</v>
+      <c r="M9" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" t="s">
         <v>28</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
@@ -2693,35 +2696,35 @@
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="42"/>
+        <v>64</v>
+      </c>
+      <c r="K10" s="54"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="42"/>
+      <c r="M10" s="54"/>
       <c r="N10" s="10"/>
       <c r="O10" t="s">
         <v>28</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="34"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -2731,43 +2734,43 @@
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="43"/>
+        <v>66</v>
+      </c>
+      <c r="K11" s="55"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="43"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="20"/>
       <c r="O11" t="s">
         <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A12" s="34">
+      <c r="A12" s="43">
         <v>145829</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="34">
+      <c r="D12" s="43">
         <v>1151772</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="12">
         <v>0</v>
@@ -2777,33 +2780,33 @@
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="56" t="s">
         <v>26</v>
       </c>
       <c r="L12" s="10"/>
-      <c r="M12" s="44" t="s">
-        <v>29</v>
+      <c r="M12" s="56" t="s">
+        <v>27</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" t="s">
         <v>28</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="34"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="12">
         <v>0</v>
@@ -2813,39 +2816,39 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="45"/>
+        <v>73</v>
+      </c>
+      <c r="K13" s="57"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="45"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="10"/>
       <c r="O13" t="s">
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="43">
+        <v>100344</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="34">
-        <v>100344</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="15">
         <v>270</v>
@@ -2857,27 +2860,27 @@
       <c r="J14" s="19"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="44" t="s">
-        <v>29</v>
+      <c r="M14" s="56" t="s">
+        <v>27</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" t="s">
         <v>28</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="15">
         <v>0</v>
@@ -2887,29 +2890,29 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="45"/>
+      <c r="M15" s="57"/>
       <c r="N15" s="10"/>
       <c r="O15" t="s">
         <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
@@ -2927,24 +2930,19 @@
         <v>28</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
@@ -2953,14 +2951,19 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="M14:M15"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12" xr:uid="{8A6EECDF-213D-4435-9AB2-44F0897711E3}"/>
@@ -3068,7 +3071,7 @@
         <v>869916</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>24</v>
@@ -3088,19 +3091,19 @@
         <v>119366</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D3">
         <v>1007201</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -3109,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3117,19 +3120,19 @@
         <v>119366</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D4">
         <v>1007201</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -3144,10 +3147,10 @@
         <v>119366</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D5">
         <v>1007201</v>
@@ -3156,7 +3159,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -3165,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3173,19 +3176,19 @@
         <v>134410</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D6">
         <v>261353</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -3194,7 +3197,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3202,19 +3205,19 @@
         <v>134410</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D7">
         <v>261353</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -3223,7 +3226,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3231,19 +3234,19 @@
         <v>134410</v>
       </c>
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D8">
         <v>261353</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -3252,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3260,10 +3263,10 @@
         <v>142290</v>
       </c>
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D9">
         <v>324000</v>
@@ -3272,7 +3275,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -3281,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3289,19 +3292,19 @@
         <v>142290</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D10">
         <v>324000</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -3310,7 +3313,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3318,19 +3321,19 @@
         <v>142290</v>
       </c>
       <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D11">
         <v>324000</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -3339,7 +3342,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
@@ -3347,19 +3350,19 @@
         <v>145829</v>
       </c>
       <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D12">
         <v>1151772</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -3368,7 +3371,7 @@
         <v>208</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -3376,10 +3379,10 @@
         <v>145829</v>
       </c>
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D13">
         <v>1151772</v>
@@ -3388,7 +3391,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -3397,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3405,13 +3408,13 @@
         <v>1000344</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="4">
         <v>270</v>
@@ -3426,13 +3429,13 @@
         <v>1000344</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -3441,7 +3444,7 @@
         <v>200</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3449,13 +3452,13 @@
         <v>1000344</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -3517,106 +3520,106 @@
     </row>
     <row r="2" spans="1:2" ht="45.75">
       <c r="A2" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>112</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>114</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
       <c r="A7" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>119</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
       <c r="A8" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
       <c r="A9" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
       <c r="A11" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="60" t="s">
         <v>126</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>128</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="60" t="s">
         <v>131</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
@@ -3624,47 +3627,47 @@
         <v>23</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
       <c r="A16" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
       <c r="A17" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
       <c r="A18" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="60" t="s">
         <v>137</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
@@ -3672,15 +3675,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="60" t="s">
         <v>141</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3689,8 +3692,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Suranga Karavita</DisplayName>
+        <AccountId>1730</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Hakshala David</DisplayName>
+        <AccountId>2305</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Afraa Mohamed</DisplayName>
+        <AccountId>2365</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Pabasara Herath</DisplayName>
+        <AccountId>2367</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -3715,6 +3775,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3794,6 +3855,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3937,65 +4003,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Suranga Karavita</DisplayName>
-        <AccountId>1730</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Hakshala David</DisplayName>
-        <AccountId>2305</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Afraa Mohamed</DisplayName>
-        <AccountId>2365</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Pabasara Herath</DisplayName>
-        <AccountId>2367</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD35035E-53EF-4346-8B10-4ECA462E02DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C138E8-386B-4289-AC99-AD84197522D7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4003,5 +4012,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C138E8-386B-4289-AC99-AD84197522D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B375FF7C-6204-4D0D-9323-0CEED1C8EC77}"/>
 </file>